--- a/bio.xlsx
+++ b/bio.xlsx
@@ -1,12 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="12735"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Página1" sheetId="1" r:id="rId4"/>
+    <sheet name="Table 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -15,9 +18,10 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000009"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000009"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Claudete Imaculada De Souza Gomes</t>
     </r>
@@ -25,9 +29,10 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000009"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000009"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Flávio José Soares Júnior</t>
     </r>
@@ -35,9 +40,10 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000009"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000009"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Walter Alexandre Oliveira Bicalho</t>
     </r>
@@ -45,9 +51,10 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000009"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000009"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Sintia Souza De Oliveira Salgado</t>
     </r>
@@ -55,9 +62,10 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000009"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000009"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Valquiria Silva Machado</t>
     </r>
@@ -65,9 +73,10 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000009"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000009"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Andrezza Rodrigues De Souza</t>
     </r>
@@ -75,9 +84,10 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000009"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000009"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Fernanda Calmon Britto</t>
     </r>
@@ -85,9 +95,10 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000009"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000009"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Cristiane Teixeira Franco</t>
     </r>
@@ -95,45 +106,41 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000009"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000009"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Amanda Daniela Simões Bellobraydic</t>
     </r>
   </si>
   <si>
-    <t>FIM - BIOLOGIA</t>
+    <t>Fim Biologia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="###0;###0"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <charset val="204"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000009"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
+      <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -141,11 +148,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
-    <border/>
+  <borders count="5">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -159,6 +172,20 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -173,94 +200,172 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Escritório">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="000000"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -269,230 +374,263 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="30.5"/>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
+    <col min="2" max="2" width="56" customWidth="1"/>
+    <col min="3" max="5" width="1.1640625" customWidth="1"/>
+    <col min="6" max="6" width="2.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" ht="27" customHeight="1">
       <c r="A1" s="1">
-        <v>16.0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="3">
-        <v>17.0</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:2" ht="30.95" customHeight="1">
+      <c r="A2" s="2">
+        <v>17</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" ht="30" customHeight="1">
       <c r="A3" s="1">
-        <v>18.0</v>
-      </c>
-      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" ht="30" customHeight="1">
       <c r="A4" s="1">
-        <v>19.0</v>
-      </c>
-      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" ht="30" customHeight="1">
       <c r="A5" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" ht="30" customHeight="1">
       <c r="A6" s="1">
-        <v>21.0</v>
-      </c>
-      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" ht="30" customHeight="1">
       <c r="A7" s="1">
-        <v>22.0</v>
-      </c>
-      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" ht="30" customHeight="1">
       <c r="A8" s="1">
-        <v>23.0</v>
-      </c>
-      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2" ht="30" customHeight="1">
       <c r="A9" s="1">
-        <v>24.0</v>
-      </c>
-      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5" t="s">
+    <row r="10" spans="1:2">
+      <c r="B10" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/bio.xlsx
+++ b/bio.xlsx
@@ -1,93 +1,126 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Página1" sheetId="1" r:id="rId4"/>
+    <sheet name="Página1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>LUIZ FRANCISCO ALVES FAZZA</t>
-  </si>
-  <si>
-    <t>PATRICIA OLIVEIRA COSTA FAZZA</t>
-  </si>
-  <si>
-    <t>TATIANE PINHEIRO LOPES NOVATO</t>
-  </si>
-  <si>
-    <t>RONALDO ANTONIO DE SOUZA</t>
-  </si>
-  <si>
-    <t>CARLOS HENRIQUE ECKHARDT DUQUE ESTRADA</t>
-  </si>
-  <si>
-    <t>ELAINE CASTRO DE MATTOS TORRES</t>
-  </si>
-  <si>
-    <t>VICTOR EUSTAQUIO TOSTES ZIDIRICH</t>
-  </si>
-  <si>
-    <t>LÍVIA SENRA DE SOUZA DUQUE</t>
-  </si>
-  <si>
-    <t>VANESSA CARLA MUZULAO DE ALMEIDA MORAES</t>
-  </si>
-  <si>
-    <t>THAYS DE OLIVEIRA DIAS CAÇADOR</t>
-  </si>
-  <si>
-    <t>LEANDRO CÉSAR GOMES</t>
-  </si>
-  <si>
-    <t>THAIS BARROS RÍSPOLI COTTA</t>
-  </si>
-  <si>
-    <t>FLÁVIA PEREIRA CAMPOS</t>
-  </si>
-  <si>
-    <t>EMILY OLIVEIRA SANTOS</t>
-  </si>
-  <si>
-    <t>MARIANA BRASIL GALVÃO</t>
-  </si>
-  <si>
-    <t>GUSTAVO MARTINS STROPPA</t>
-  </si>
-  <si>
-    <t>NADIA CASARIN MARTINS DA SILVA</t>
-  </si>
-  <si>
-    <t>ANA CAROLINA ROCHA LAMEGO QUELLIS</t>
-  </si>
-  <si>
-    <t>NILHIAN GONÇALVES DE ALMEIDA</t>
-  </si>
-  <si>
-    <t>DANIELLY DE SOUZA GAMA</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t xml:space="preserve">LUIZ FRANCISCO ALVES FAZZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PATRICIA OLIVEIRA COSTA FAZZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TATIANE PINHEIRO LOPES NOVATO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RONALDO ANTONIO DE SOUZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARLOS HENRIQUE ECKHARDT DUQUE ESTRADA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELAINE CASTRO DE MATTOS TORRES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VICTOR EUSTAQUIO TOSTES ZIDIRICH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LÍVIA SENRA DE SOUZA DUQUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VANESSA CARLA MUZULAO DE ALMEIDA MORAES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THAYS DE OLIVEIRA DIAS CAÇADOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEANDRO CÉSAR GOMES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THAIS BARROS RÍSPOLI COTTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLÁVIA PEREIRA CAMPOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMILY OLIVEIRA SANTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARIANA BRASIL GALVÃO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUSTAVO MARTINS STROPPA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NADIA CASARIN MARTINS DA SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANA CAROLINA ROCHA LAMEGO QUELLIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NILHIAN GONÇALVES DE ALMEIDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DANIELLY DE SOUZA GAMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIM – BIOLOGIA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="5">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF333333"/>
       <name val="&quot;Open Sans&quot;"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -95,41 +128,72 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -140,94 +204,90 @@
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="4285f4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="ea4335"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="fbbc04"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="34a853"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="ff6d01"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="46bdc6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="1155cc"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="1155cc"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
                 <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
                 <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
                 <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
                 <a:lumMod val="102000"/>
                 <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
                 <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
               </a:schemeClr>
@@ -235,33 +295,24 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
                 <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
@@ -274,13 +325,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -290,15 +335,13 @@
         <a:solidFill>
           <a:schemeClr val="phClr">
             <a:tint val="95000"/>
-            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="93000"/>
-                <a:satMod val="150000"/>
                 <a:shade val="98000"/>
                 <a:lumMod val="102000"/>
               </a:schemeClr>
@@ -306,7 +349,6 @@
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:tint val="98000"/>
-                <a:satMod val="130000"/>
                 <a:shade val="90000"/>
                 <a:lumMod val="103000"/>
               </a:schemeClr>
@@ -314,11 +356,11 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="63000"/>
-                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -327,176 +369,190 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1">
-        <v>25.0</v>
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="n">
+        <v>25</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1">
-        <v>26.0</v>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1">
-        <v>27.0</v>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1">
-        <v>28.0</v>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1">
-        <v>29.0</v>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>29</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <v>30.0</v>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>30</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1">
-        <v>31.0</v>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>31</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1">
-        <v>32.0</v>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>32</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1">
-        <v>33.0</v>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>33</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1">
-        <v>34.0</v>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>34</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1">
-        <v>35.0</v>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>35</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1">
-        <v>36.0</v>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>36</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1">
-        <v>37.0</v>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>37</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1">
-        <v>38.0</v>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>38</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1">
-        <v>39.0</v>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>39</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1">
-        <v>40.0</v>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>40</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1">
-        <v>41.0</v>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>41</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1">
-        <v>42.0</v>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>42</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1">
-        <v>43.0</v>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>43</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1">
-        <v>44.0</v>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>44</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>19</v>
       </c>
     </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>